--- a/225.xlsx
+++ b/225.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\桌面\NEW_folder\pi_sp\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="2" r:id="rId1"/>
@@ -3927,59 +3927,59 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="H33" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:X43"/>
+    <sheetView tabSelected="true" topLeftCell="J17" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="true"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="3.875"/>
-    <col customWidth="true" max="2" min="2" width="11.5"/>
-    <col customWidth="true" max="3" min="3" width="6.5"/>
-    <col customWidth="true" max="4" min="4" width="16.5"/>
-    <col customWidth="true" max="5" min="5" width="4.875"/>
-    <col customWidth="true" max="6" min="6" width="4.625"/>
-    <col customWidth="true" max="7" min="7" width="6.875"/>
-    <col customWidth="true" max="8" min="8" width="6.5"/>
-    <col customWidth="true" max="9" min="9" width="7.25"/>
-    <col customWidth="true" max="10" min="10" width="5.5"/>
-    <col customWidth="true" max="11" min="11" width="10.25"/>
-    <col customWidth="true" max="12" min="12" width="12.375"/>
-    <col customWidth="true" max="13" min="13" width="7.625"/>
-    <col customWidth="true" max="15" min="14" width="7.375"/>
-    <col customWidth="true" max="16" min="16" width="7.125"/>
-    <col customWidth="true" max="17" min="17" width="7.875"/>
-    <col customWidth="true" max="18" min="18" width="5.375"/>
-    <col customWidth="true" max="19" min="19" width="9.75"/>
+    <col customWidth="true" max="1" min="1" width="3.88671875"/>
+    <col customWidth="true" max="2" min="2" width="11.44140625"/>
+    <col customWidth="true" max="3" min="3" width="6.44140625"/>
+    <col customWidth="true" max="4" min="4" width="16.44140625"/>
+    <col customWidth="true" max="5" min="5" width="4.88671875"/>
+    <col customWidth="true" max="6" min="6" width="4.6640625"/>
+    <col customWidth="true" max="7" min="7" width="6.88671875"/>
+    <col customWidth="true" max="8" min="8" width="6.44140625"/>
+    <col customWidth="true" max="9" min="9" width="7.21875"/>
+    <col customWidth="true" max="10" min="10" width="5.44140625"/>
+    <col customWidth="true" max="11" min="11" width="10.21875"/>
+    <col customWidth="true" max="12" min="12" width="12.33203125"/>
+    <col customWidth="true" max="13" min="13" width="7.6640625"/>
+    <col customWidth="true" max="15" min="14" width="7.33203125"/>
+    <col customWidth="true" max="16" min="16" width="7.109375"/>
+    <col customWidth="true" max="17" min="17" width="7.88671875"/>
+    <col customWidth="true" max="18" min="18" width="5.33203125"/>
+    <col customWidth="true" max="19" min="19" width="9.77734375"/>
     <col customWidth="true" max="20" min="20" width="11"/>
-    <col customWidth="true" max="21" min="21" width="6.125"/>
-    <col customWidth="true" max="22" min="22" width="5.875"/>
-    <col customWidth="true" max="23" min="23" width="5.625"/>
-    <col customWidth="true" max="24" min="24" width="5.5"/>
-    <col customWidth="true" max="25" min="25" width="5.375"/>
-    <col customWidth="true" max="26" min="26" width="10.625"/>
-    <col customWidth="true" max="27" min="27" width="9.25"/>
-    <col customWidth="true" max="28" min="28" width="8.5"/>
-    <col customWidth="true" max="29" min="29" width="10.375"/>
+    <col customWidth="true" max="21" min="21" width="6.109375"/>
+    <col customWidth="true" max="22" min="22" width="5.88671875"/>
+    <col customWidth="true" max="23" min="23" width="5.6640625"/>
+    <col customWidth="true" max="24" min="24" width="5.44140625"/>
+    <col customWidth="true" max="25" min="25" width="5.33203125"/>
+    <col customWidth="true" max="26" min="26" width="10.6640625"/>
+    <col customWidth="true" max="27" min="27" width="9.21875"/>
+    <col customWidth="true" max="28" min="28" width="8.44140625"/>
+    <col customWidth="true" max="29" min="29" width="10.33203125"/>
     <col customWidth="true" max="31" min="30" width="7"/>
-    <col customWidth="true" max="33" min="32" width="3.625"/>
-    <col customWidth="true" max="34" min="34" width="2.375"/>
-    <col customWidth="true" max="35" min="35" width="3.25"/>
-    <col customWidth="true" max="36" min="36" width="2.375"/>
-    <col customWidth="true" max="37" min="37" width="9.375"/>
-    <col customWidth="true" max="38" min="38" width="6.75"/>
-    <col customWidth="true" max="39" min="39" width="5.625"/>
-    <col customWidth="true" max="40" min="40" width="6.75"/>
-    <col customWidth="true" max="41" min="41" width="2.5"/>
-    <col customWidth="true" max="42" min="42" width="7.875"/>
-    <col customWidth="true" max="44" min="43" width="5.25"/>
-    <col customWidth="true" max="45" min="45" width="4.125"/>
-    <col customWidth="true" max="46" min="46" width="6.75"/>
-    <col customWidth="true" max="47" min="47" width="8.25"/>
-    <col customWidth="true" max="48" min="48" width="8.5"/>
-    <col customWidth="true" max="49" min="49" width="4.875"/>
-    <col customWidth="true" max="50" min="50" width="5.75"/>
-    <col customWidth="true" max="51" min="51" width="3.625"/>
+    <col customWidth="true" max="33" min="32" width="3.6640625"/>
+    <col customWidth="true" max="34" min="34" width="2.33203125"/>
+    <col customWidth="true" max="35" min="35" width="3.21875"/>
+    <col customWidth="true" max="36" min="36" width="2.33203125"/>
+    <col customWidth="true" max="37" min="37" width="9.33203125"/>
+    <col customWidth="true" max="38" min="38" width="6.77734375"/>
+    <col customWidth="true" max="39" min="39" width="5.6640625"/>
+    <col customWidth="true" max="40" min="40" width="6.77734375"/>
+    <col customWidth="true" max="41" min="41" width="2.44140625"/>
+    <col customWidth="true" max="42" min="42" width="7.88671875"/>
+    <col customWidth="true" max="44" min="43" width="5.21875"/>
+    <col customWidth="true" max="45" min="45" width="4.109375"/>
+    <col customWidth="true" max="46" min="46" width="6.77734375"/>
+    <col customWidth="true" max="47" min="47" width="8.21875"/>
+    <col customWidth="true" max="48" min="48" width="8.44140625"/>
+    <col customWidth="true" max="49" min="49" width="4.88671875"/>
+    <col customWidth="true" max="50" min="50" width="5.77734375"/>
+    <col customWidth="true" max="51" min="51" width="3.6640625"/>
     <col customWidth="true" max="52" min="52" width="7"/>
   </cols>
   <sheetData>
@@ -4095,7 +4095,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="16.5">
+    <row r="3" spans="1:52" ht="16.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -5080,13 +5080,11 @@
       <c r="D19" s="203"/>
       <c r="E19" s="243">
         <f>=AF42</f>
-        <v>0</v>
       </c>
       <c r="F19" s="230"/>
       <c r="G19" s="203"/>
       <c r="H19" s="245">
-        <f>AK42+AP42</f>
-        <v>0</v>
+        <f>=AK42+AP42</f>
       </c>
       <c r="I19" s="230"/>
       <c r="J19" s="230"/>
@@ -5102,14 +5100,12 @@
       </c>
       <c r="O19" s="203"/>
       <c r="P19" s="243">
-        <f t="shared" ref="P19:P23" si="0">E19</f>
-        <v>0</v>
+        <f>=E23</f>
       </c>
       <c r="Q19" s="230"/>
       <c r="R19" s="203"/>
       <c r="S19" s="245">
-        <f>AU42</f>
-        <v>0</v>
+        <f>=AU42</f>
       </c>
       <c r="T19" s="230"/>
       <c r="U19" s="230"/>
@@ -5152,15 +5148,11 @@
       <c r="B20" s="203"/>
       <c r="C20" s="244"/>
       <c r="D20" s="203"/>
-      <c r="E20" s="243">
-        <f>AG42</f>
-        <v>0</v>
-      </c>
+      <c r="E20" s="243"/>
       <c r="F20" s="230"/>
       <c r="G20" s="203"/>
       <c r="H20" s="247">
-        <f>AL42+AQ42</f>
-        <v>0</v>
+        <f>=AL42+AQ42</f>
       </c>
       <c r="I20" s="230"/>
       <c r="J20" s="230"/>
@@ -5170,19 +5162,17 @@
         <v>2</v>
       </c>
       <c r="N20" s="242">
-        <f t="shared" ref="N20:N23" si="1">B20</f>
+        <f>C20</f>
         <v>0</v>
       </c>
       <c r="O20" s="203"/>
       <c r="P20" s="243">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>=E24</f>
       </c>
       <c r="Q20" s="230"/>
       <c r="R20" s="203"/>
       <c r="S20" s="245">
-        <f>AV42</f>
-        <v>0</v>
+        <f>=AV42</f>
       </c>
       <c r="T20" s="230"/>
       <c r="U20" s="230"/>
@@ -5225,15 +5215,11 @@
       <c r="B21" s="203"/>
       <c r="C21" s="244"/>
       <c r="D21" s="203"/>
-      <c r="E21" s="243">
-        <f>AH42</f>
-        <v>0</v>
-      </c>
+      <c r="E21" s="243"/>
       <c r="F21" s="230"/>
       <c r="G21" s="203"/>
       <c r="H21" s="247">
-        <f>AM42+AR42</f>
-        <v>0</v>
+        <f>=AM42+AR42</f>
       </c>
       <c r="I21" s="230"/>
       <c r="J21" s="230"/>
@@ -5243,19 +5229,17 @@
         <v>3</v>
       </c>
       <c r="N21" s="242">
-        <f t="shared" si="1"/>
+        <f>C21</f>
         <v>0</v>
       </c>
       <c r="O21" s="203"/>
       <c r="P21" s="243">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>=E25</f>
       </c>
       <c r="Q21" s="230"/>
       <c r="R21" s="203"/>
       <c r="S21" s="245">
-        <f>AW42</f>
-        <v>0</v>
+        <f>=AW42</f>
       </c>
       <c r="T21" s="230"/>
       <c r="U21" s="230"/>
@@ -5298,15 +5282,11 @@
       <c r="B22" s="203"/>
       <c r="C22" s="244"/>
       <c r="D22" s="203"/>
-      <c r="E22" s="243">
-        <f>AI42</f>
-        <v>0</v>
-      </c>
+      <c r="E22" s="243"/>
       <c r="F22" s="230"/>
       <c r="G22" s="203"/>
       <c r="H22" s="247">
-        <f>AN42+AS42</f>
-        <v>0</v>
+        <f>=AN42+AS42</f>
       </c>
       <c r="I22" s="230"/>
       <c r="J22" s="230"/>
@@ -5316,19 +5296,17 @@
         <v>4</v>
       </c>
       <c r="N22" s="242">
-        <f t="shared" si="1"/>
+        <f>C22</f>
         <v>0</v>
       </c>
       <c r="O22" s="203"/>
       <c r="P22" s="243">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>=E26</f>
       </c>
       <c r="Q22" s="230"/>
       <c r="R22" s="203"/>
       <c r="S22" s="245">
-        <f>AX42</f>
-        <v>0</v>
+        <f>=AX42</f>
       </c>
       <c r="T22" s="230"/>
       <c r="U22" s="230"/>
@@ -5372,14 +5350,12 @@
       <c r="C23" s="244"/>
       <c r="D23" s="203"/>
       <c r="E23" s="243">
-        <f>AJ42</f>
-        <v>0</v>
+        <f>=AF42</f>
       </c>
       <c r="F23" s="230"/>
       <c r="G23" s="203"/>
       <c r="H23" s="247">
-        <f>AO42+AT42</f>
-        <v>0</v>
+        <f>=AO42+AT42</f>
       </c>
       <c r="I23" s="230"/>
       <c r="J23" s="230"/>
@@ -5389,19 +5365,17 @@
         <v>5</v>
       </c>
       <c r="N23" s="242">
-        <f t="shared" si="1"/>
+        <f>C23</f>
         <v>0</v>
       </c>
       <c r="O23" s="203"/>
       <c r="P23" s="243">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>=E27</f>
       </c>
       <c r="Q23" s="230"/>
       <c r="R23" s="203"/>
       <c r="S23" s="245">
-        <f>AY42</f>
-        <v>0</v>
+        <f>=AY42</f>
       </c>
       <c r="T23" s="230"/>
       <c r="U23" s="230"/>
@@ -5445,8 +5419,7 @@
       <c r="C24" s="208"/>
       <c r="D24" s="198"/>
       <c r="E24" s="207">
-        <f>SUM(E19:G23)</f>
-        <v>0</v>
+        <f>=SUM(E19:G23)</f>
       </c>
       <c r="F24" s="208"/>
       <c r="G24" s="198"/>
@@ -5454,8 +5427,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="248">
-        <f>SUM(H19:L23)</f>
-        <v>0</v>
+        <f>=SUM(H19:L23)</f>
       </c>
       <c r="J24" s="208"/>
       <c r="K24" s="208"/>
@@ -5466,8 +5438,7 @@
       <c r="N24" s="208"/>
       <c r="O24" s="198"/>
       <c r="P24" s="207">
-        <f>SUM(P19:R23)</f>
-        <v>0</v>
+        <f>=SUM(P19:R23)</f>
       </c>
       <c r="Q24" s="208"/>
       <c r="R24" s="198"/>
@@ -5475,8 +5446,7 @@
         <v>36</v>
       </c>
       <c r="T24" s="295">
-        <f>SUM(S19:W23)</f>
-        <v>0</v>
+        <f>=SUM(S19:W23)</f>
       </c>
       <c r="U24" s="208"/>
       <c r="V24" s="208"/>
@@ -5513,6 +5483,7 @@
     </row>
     <row r="25" spans="1:52" ht="27" customHeight="true">
       <c r="A25" s="209" t="s">
+        <f>=AH42</f>
         <v>37</v>
       </c>
       <c r="B25" s="210"/>
@@ -5569,6 +5540,7 @@
     </row>
     <row r="26" spans="1:52" ht="27" customHeight="true">
       <c r="A26" s="212" t="s">
+        <f>=AI42</f>
         <v>38</v>
       </c>
       <c r="B26" s="213"/>
@@ -5627,6 +5599,7 @@
     </row>
     <row r="27" spans="1:52" ht="27" customHeight="true">
       <c r="A27" s="216" t="s">
+        <f>=AJ42</f>
         <v>40</v>
       </c>
       <c r="B27" s="196"/>
@@ -6410,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="76">
-        <f t="shared" ref="K37:K40" si="2">H37+I37+J37</f>
+        <f t="shared" ref="K37:K40" si="0">H37+I37+J37</f>
         <v>1600</v>
       </c>
       <c r="L37" s="77">
@@ -6423,15 +6396,15 @@
         <v>0</v>
       </c>
       <c r="O37" s="79">
-        <f t="shared" ref="O37:O40" si="3">U37+V37+W37+X37</f>
+        <f t="shared" ref="O37:O40" si="1">U37+V37+W37+X37</f>
         <v>85</v>
       </c>
       <c r="P37" s="79" t="e">
-        <f t="shared" ref="P37:P40" si="4">$T$52</f>
+        <f t="shared" ref="P37:P40" si="2">$T$52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="80" t="e">
-        <f t="shared" ref="Q37:Q40" si="5">G37-K37-M37-N37-O37-P37-L37</f>
+        <f t="shared" ref="Q37:Q40" si="3">G37-K37-M37-N37-O37-P37-L37</f>
         <v>#REF!</v>
       </c>
       <c r="R37" s="222">
@@ -6439,7 +6412,7 @@
       </c>
       <c r="S37" s="201"/>
       <c r="T37" s="81" t="e">
-        <f t="shared" ref="T37:T40" si="6">Q37*R37/1000*$T$55</f>
+        <f t="shared" ref="T37:T40" si="4">Q37*R37/1000*$T$55</f>
         <v>#REF!</v>
       </c>
       <c r="U37" s="74">
@@ -6455,7 +6428,7 @@
         <v>40</v>
       </c>
       <c r="Y37" s="83">
-        <f t="shared" ref="Y37:Y40" si="7">(K37+O37)-J37</f>
+        <f t="shared" ref="Y37:Y40" si="5">(K37+O37)-J37</f>
         <v>1685</v>
       </c>
       <c r="Z37" s="84">
@@ -6570,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="L38" s="77">
@@ -6583,15 +6556,15 @@
         <v>0</v>
       </c>
       <c r="O38" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="P38" s="79" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="80" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="R38" s="222">
@@ -6599,7 +6572,7 @@
       </c>
       <c r="S38" s="201"/>
       <c r="T38" s="81" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="U38" s="74">
@@ -6615,7 +6588,7 @@
         <v>55</v>
       </c>
       <c r="Y38" s="83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1700</v>
       </c>
       <c r="Z38" s="84">
@@ -6730,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1720</v>
       </c>
       <c r="L39" s="77">
@@ -6743,15 +6716,15 @@
         <v>0</v>
       </c>
       <c r="O39" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P39" s="79" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="80" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="R39" s="222">
@@ -6759,7 +6732,7 @@
       </c>
       <c r="S39" s="201"/>
       <c r="T39" s="81" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="U39" s="74">
@@ -6775,7 +6748,7 @@
         <v>60</v>
       </c>
       <c r="Y39" s="83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1780</v>
       </c>
       <c r="Z39" s="84">
@@ -6890,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1605</v>
       </c>
       <c r="L40" s="77">
@@ -6903,15 +6876,15 @@
         <v>0</v>
       </c>
       <c r="O40" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="P40" s="79" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="80" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="R40" s="222">
@@ -6919,7 +6892,7 @@
       </c>
       <c r="S40" s="201"/>
       <c r="T40" s="81" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="U40" s="74">
@@ -6935,7 +6908,7 @@
         <v>40</v>
       </c>
       <c r="Y40" s="83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1745</v>
       </c>
       <c r="Z40" s="84">
@@ -7107,84 +7080,64 @@
       <c r="AD42" s="98"/>
       <c r="AE42" s="96"/>
       <c r="AF42" s="189">
-        <f t="shared" ref="AF42:AY42" si="8">SUM(AF36:AF41)</f>
-        <v>0</v>
+        <f>=SUM(AF36:AF41)</f>
       </c>
       <c r="AG42" s="189">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AG36:AG41)</f>
       </c>
       <c r="AH42" s="189">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AH36:AH41)</f>
       </c>
       <c r="AI42" s="189">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AI36:AI41)</f>
       </c>
       <c r="AJ42" s="189">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AJ36:AJ41)</f>
       </c>
       <c r="AK42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AK36:AK41)</f>
       </c>
       <c r="AL42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AL36:AL41)</f>
       </c>
       <c r="AM42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AM36:AM41)</f>
       </c>
       <c r="AN42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AN36:AN41)</f>
       </c>
       <c r="AO42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AO36:AO41)</f>
       </c>
       <c r="AP42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AP36:AP41)</f>
       </c>
       <c r="AQ42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AQ36:AQ41)</f>
       </c>
       <c r="AR42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AR36:AR41)</f>
       </c>
       <c r="AS42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AS36:AS41)</f>
       </c>
       <c r="AT42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AT36:AT41)</f>
       </c>
       <c r="AU42" s="191">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AU36:AU41)</f>
       </c>
       <c r="AV42" s="191">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AV36:AV41)</f>
       </c>
       <c r="AW42" s="191">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AW36:AW41)</f>
       </c>
       <c r="AX42" s="191">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AX36:AX41)</f>
       </c>
       <c r="AY42" s="99">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>=SUM(AY36:AY41)</f>
       </c>
       <c r="AZ42" s="100" t="s">
         <v>98</v>
@@ -7320,7 +7273,9 @@
         <v>1</v>
       </c>
       <c r="P45" s="100"/>
-      <c r="Q45" s="124"/>
+      <c r="Q45" s="124">
+        <f>=SUM(R36:R41)</f>
+      </c>
       <c r="R45" s="125" t="s">
         <v>95</v>
       </c>
@@ -7337,28 +7292,22 @@
       <c r="X45" s="100"/>
       <c r="Y45" s="100"/>
       <c r="Z45" s="129">
-        <f t="shared" ref="Z45:AB45" si="9">SUM(Z36:Z41)</f>
-        <v>0</v>
+        <f>=SUM(Z36:Z41)</f>
       </c>
       <c r="AA45" s="129">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>=SUM(AA36:AA41)</f>
       </c>
       <c r="AB45" s="129">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>=SUM(AB36:AB41)</f>
       </c>
       <c r="AC45" s="130">
-        <f>SUM(AC36:AC41,0)</f>
-        <v>0</v>
+        <f>=SUM(AC36:AC41)</f>
       </c>
       <c r="AD45" s="131">
-        <f t="shared" ref="AD45:AE45" si="10">SUM(AD36:AD41)</f>
-        <v>0</v>
+        <f>=SUM(AD36:AD41)</f>
       </c>
       <c r="AE45" s="129">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>=SUM(AE36:AE41)</f>
       </c>
       <c r="AF45" s="116"/>
       <c r="AG45" s="118"/>
@@ -7462,7 +7411,7 @@
         <v>105</v>
       </c>
       <c r="E47" s="227">
-        <f>Z45</f>
+        <f>=Z45</f>
         <v>0</v>
       </c>
       <c r="F47" s="224"/>
@@ -7547,9 +7496,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="147"/>
-      <c r="Q48" s="100">
-        <f>=SUM(R36:R41)</f>
-      </c>
+      <c r="Q48" s="100"/>
       <c r="R48" s="100"/>
       <c r="S48" s="157"/>
       <c r="T48" s="65"/>
@@ -7675,7 +7622,7 @@
         <v>100</v>
       </c>
       <c r="N50" s="164">
-        <f t="shared" ref="N50:N55" si="11">M50*$T$55</f>
+        <f t="shared" ref="N50:N55" si="6">M50*$T$55</f>
         <v>2800</v>
       </c>
       <c r="O50" s="1"/>
@@ -7749,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O51" s="170" t="s">
@@ -7824,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O52" s="1"/>
@@ -7900,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53" s="174" t="s">
@@ -7970,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54" s="1"/>
@@ -8025,7 +7972,7 @@
       </c>
       <c r="G55" s="203"/>
       <c r="H55" s="164">
-        <f t="shared" ref="H55:H56" si="12">F55*$O$46*$T$55</f>
+        <f t="shared" ref="H55:H56" si="7">F55*$O$46*$T$55</f>
         <v>280000</v>
       </c>
       <c r="I55" s="165"/>
@@ -8039,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55" s="1"/>
@@ -8098,7 +8045,7 @@
       </c>
       <c r="G56" s="203"/>
       <c r="H56" s="164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I56" s="165"/>

--- a/225.xlsx
+++ b/225.xlsx
@@ -4537,7 +4537,9 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="252"/>
+      <c r="H9" s="252" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="209"/>
       <c r="J9" s="209"/>
       <c r="K9" s="209"/>
@@ -4661,9 +4663,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="252" t="s">
-        <v>139</v>
-      </c>
+      <c r="H11" s="252"/>
       <c r="I11" s="209"/>
       <c r="J11" s="209"/>
       <c r="K11" s="209"/>
@@ -5140,7 +5140,9 @@
         <v>27</v>
       </c>
       <c r="D19" s="204"/>
-      <c r="E19" s="244"/>
+      <c r="E19" s="244">
+        <v>12000</v>
+      </c>
       <c r="F19" s="231"/>
       <c r="G19" s="204"/>
       <c r="H19" s="246"/>
@@ -5202,7 +5204,9 @@
       <c r="B20" s="204"/>
       <c r="C20" s="245"/>
       <c r="D20" s="204"/>
-      <c r="E20" s="244"/>
+      <c r="E20" s="244">
+        <v>12000</v>
+      </c>
       <c r="F20" s="231"/>
       <c r="G20" s="204"/>
       <c r="H20" s="248"/>
@@ -6391,14 +6395,14 @@
         <v>0</v>
       </c>
       <c r="Q37" s="80">
-        <v>-85</v>
+        <v>490</v>
       </c>
       <c r="R37" s="223">
         <v>12000</v>
       </c>
       <c r="S37" s="202"/>
       <c r="T37" s="81">
-        <v>-28560</v>
+        <v>164640</v>
       </c>
       <c r="U37" s="74">
         <v>0</v>
@@ -6493,14 +6497,14 @@
         <v>0</v>
       </c>
       <c r="Q38" s="80">
-        <v>-100</v>
+        <v>490</v>
       </c>
       <c r="R38" s="223">
         <v>4000</v>
       </c>
       <c r="S38" s="202"/>
       <c r="T38" s="81">
-        <v>-11200</v>
+        <v>54880</v>
       </c>
       <c r="U38" s="74">
         <v>0</v>
@@ -6595,14 +6599,14 @@
         <v>0</v>
       </c>
       <c r="Q39" s="80">
-        <v>-60</v>
+        <v>610</v>
       </c>
       <c r="R39" s="223">
         <v>5000</v>
       </c>
       <c r="S39" s="202"/>
       <c r="T39" s="81">
-        <v>-8400</v>
+        <v>85400</v>
       </c>
       <c r="U39" s="74">
         <v>0</v>
@@ -6697,14 +6701,14 @@
         <v>0</v>
       </c>
       <c r="Q40" s="80">
-        <v>-140</v>
+        <v>555</v>
       </c>
       <c r="R40" s="223">
         <v>4000</v>
       </c>
       <c r="S40" s="202"/>
       <c r="T40" s="81">
-        <v>-15680</v>
+        <v>62160</v>
       </c>
       <c r="U40" s="74">
         <v>0</v>

--- a/225.xlsx
+++ b/225.xlsx
@@ -5141,7 +5141,7 @@
       </c>
       <c r="D19" s="204"/>
       <c r="E19" s="244">
-        <v>12000</v>
+        <v>12</v>
       </c>
       <c r="F19" s="231"/>
       <c r="G19" s="204"/>

--- a/225.xlsx
+++ b/225.xlsx
@@ -5141,11 +5141,13 @@
       </c>
       <c r="D19" s="204"/>
       <c r="E19" s="244">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F19" s="231"/>
       <c r="G19" s="204"/>
-      <c r="H19" s="246"/>
+      <c r="H19" s="246">
+        <v>42745</v>
+      </c>
       <c r="I19" s="231"/>
       <c r="J19" s="231"/>
       <c r="K19" s="231"/>
@@ -5205,11 +5207,13 @@
       <c r="C20" s="245"/>
       <c r="D20" s="204"/>
       <c r="E20" s="244">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="231"/>
       <c r="G20" s="204"/>
-      <c r="H20" s="248"/>
+      <c r="H20" s="248">
+        <v>0</v>
+      </c>
       <c r="I20" s="231"/>
       <c r="J20" s="231"/>
       <c r="K20" s="231"/>
@@ -5267,10 +5271,14 @@
       <c r="B21" s="204"/>
       <c r="C21" s="245"/>
       <c r="D21" s="204"/>
-      <c r="E21" s="244"/>
+      <c r="E21" s="244">
+        <v>0</v>
+      </c>
       <c r="F21" s="231"/>
       <c r="G21" s="204"/>
-      <c r="H21" s="248"/>
+      <c r="H21" s="248">
+        <v>0</v>
+      </c>
       <c r="I21" s="231"/>
       <c r="J21" s="231"/>
       <c r="K21" s="231"/>
@@ -5328,10 +5336,14 @@
       <c r="B22" s="204"/>
       <c r="C22" s="245"/>
       <c r="D22" s="204"/>
-      <c r="E22" s="244"/>
+      <c r="E22" s="244">
+        <v>0</v>
+      </c>
       <c r="F22" s="231"/>
       <c r="G22" s="204"/>
-      <c r="H22" s="248"/>
+      <c r="H22" s="248">
+        <v>0</v>
+      </c>
       <c r="I22" s="231"/>
       <c r="J22" s="231"/>
       <c r="K22" s="231"/>
@@ -5389,10 +5401,14 @@
       <c r="B23" s="204"/>
       <c r="C23" s="245"/>
       <c r="D23" s="204"/>
-      <c r="E23" s="244"/>
+      <c r="E23" s="244">
+        <v>0</v>
+      </c>
       <c r="F23" s="231"/>
       <c r="G23" s="204"/>
-      <c r="H23" s="248"/>
+      <c r="H23" s="248">
+        <v>0</v>
+      </c>
       <c r="I23" s="231"/>
       <c r="J23" s="231"/>
       <c r="K23" s="231"/>
